--- a/testdata/FCfiles/qa/ManageBilling/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="146">
   <si>
     <t>shipmentType</t>
   </si>
@@ -444,6 +444,27 @@
   </si>
   <si>
     <t>CEV1003649</t>
+  </si>
+  <si>
+    <t>51530027</t>
+  </si>
+  <si>
+    <t>02-06-2022</t>
+  </si>
+  <si>
+    <t>FCT939835451538145280</t>
+  </si>
+  <si>
+    <t>CEV1003924</t>
+  </si>
+  <si>
+    <t>51530028</t>
+  </si>
+  <si>
+    <t>FCT939836331050139648</t>
+  </si>
+  <si>
+    <t>CEV1003925</t>
   </si>
 </sst>
 </file>
@@ -473,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="76">
+  <fills count="96">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,8 +871,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="74">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -1216,6 +1337,76 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1224,7 +1415,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1277,7 +1468,17 @@
     <xf applyBorder="true" applyFill="true" borderId="67" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="69" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="71" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="73" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="93" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1925,8 +2126,8 @@
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>133</v>
+      <c r="B2" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -1979,20 +2180,20 @@
       <c r="U2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="43" t="s">
-        <v>132</v>
+      <c r="V2" s="53" t="s">
+        <v>139</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Y2" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="47" t="s">
-        <v>135</v>
+      <c r="Y2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" s="57" t="s">
+        <v>142</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>74</v>
@@ -2021,8 +2222,8 @@
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>133</v>
+      <c r="B3" s="59" t="s">
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -2073,20 +2274,20 @@
       <c r="U3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="48" t="s">
-        <v>136</v>
+      <c r="V3" s="58" t="s">
+        <v>143</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="50" t="s">
+      <c r="X3" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="Y3" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z3" s="52" t="s">
-        <v>138</v>
+      <c r="Y3" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="62" t="s">
+        <v>145</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>74</v>

--- a/testdata/FCfiles/qa/ManageBilling/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
   <si>
     <t>shipmentType</t>
   </si>
@@ -465,6 +465,27 @@
   </si>
   <si>
     <t>CEV1003925</t>
+  </si>
+  <si>
+    <t>51539216</t>
+  </si>
+  <si>
+    <t>05-11-2022</t>
+  </si>
+  <si>
+    <t>$858.45</t>
+  </si>
+  <si>
+    <t>CEV1004466</t>
+  </si>
+  <si>
+    <t>51539217</t>
+  </si>
+  <si>
+    <t>$997.07</t>
+  </si>
+  <si>
+    <t>CEV1004467</t>
   </si>
 </sst>
 </file>
@@ -494,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="96">
+  <fills count="116">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,8 +992,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="94">
+  <borders count="114">
     <border>
       <left/>
       <right/>
@@ -1407,6 +1528,76 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1415,7 +1606,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1478,7 +1669,17 @@
     <xf applyBorder="true" applyFill="true" borderId="87" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="89" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="91" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="93" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="113" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2126,8 +2327,8 @@
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>140</v>
+      <c r="B2" s="64" t="s">
+        <v>147</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -2180,20 +2381,20 @@
       <c r="U2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="53" t="s">
-        <v>139</v>
+      <c r="V2" s="63" t="s">
+        <v>146</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y2" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z2" s="57" t="s">
-        <v>142</v>
+      <c r="X2" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="67" t="s">
+        <v>149</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>74</v>
@@ -2222,8 +2423,8 @@
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>140</v>
+      <c r="B3" s="69" t="s">
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -2274,20 +2475,20 @@
       <c r="U3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="58" t="s">
-        <v>143</v>
+      <c r="V3" s="68" t="s">
+        <v>150</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y3" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z3" s="62" t="s">
-        <v>145</v>
+      <c r="X3" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y3" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z3" s="72" t="s">
+        <v>152</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>74</v>

--- a/testdata/FCfiles/qa/ManageBilling/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
   <si>
     <t>shipmentType</t>
   </si>
@@ -486,6 +486,57 @@
   </si>
   <si>
     <t>CEV1004467</t>
+  </si>
+  <si>
+    <t>51545584</t>
+  </si>
+  <si>
+    <t>08-17-2022</t>
+  </si>
+  <si>
+    <t>$1,167.72</t>
+  </si>
+  <si>
+    <t>CEV1004862</t>
+  </si>
+  <si>
+    <t>51545585</t>
+  </si>
+  <si>
+    <t>$1,238.72</t>
+  </si>
+  <si>
+    <t>CEV1004863</t>
+  </si>
+  <si>
+    <t>51545642</t>
+  </si>
+  <si>
+    <t>$1,123.81</t>
+  </si>
+  <si>
+    <t>CEV1004864</t>
+  </si>
+  <si>
+    <t>51545647</t>
+  </si>
+  <si>
+    <t>$1,191.80</t>
+  </si>
+  <si>
+    <t>CEV1004865</t>
+  </si>
+  <si>
+    <t>51545663</t>
+  </si>
+  <si>
+    <t>CEV1004866</t>
+  </si>
+  <si>
+    <t>51545664</t>
+  </si>
+  <si>
+    <t>CEV1004867</t>
   </si>
 </sst>
 </file>
@@ -515,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="116">
+  <fills count="176">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,8 +1143,308 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="114">
+  <borders count="174">
     <border>
       <left/>
       <right/>
@@ -1598,6 +1949,216 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1606,7 +2167,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1679,7 +2240,37 @@
     <xf applyBorder="true" applyFill="true" borderId="107" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="109" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="111" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="113" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="173" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2209,7 +2800,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="12.3359375" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="12.3359375" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
@@ -2327,8 +2918,8 @@
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>147</v>
+      <c r="B2" s="94" t="s">
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -2381,20 +2972,20 @@
       <c r="U2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="63" t="s">
-        <v>146</v>
+      <c r="V2" s="93" t="s">
+        <v>166</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z2" s="67" t="s">
-        <v>149</v>
+      <c r="X2" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z2" s="97" t="s">
+        <v>167</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>74</v>
@@ -2423,8 +3014,8 @@
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>147</v>
+      <c r="B3" s="99" t="s">
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -2475,20 +3066,20 @@
       <c r="U3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="68" t="s">
-        <v>150</v>
+      <c r="V3" s="98" t="s">
+        <v>168</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y3" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z3" s="72" t="s">
-        <v>152</v>
+      <c r="X3" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y3" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="102" t="s">
+        <v>169</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>74</v>
